--- a/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1072,7 @@
         <v>0.9904044004571106</v>
       </c>
       <c r="E13">
-        <v>0.990327911822577</v>
+        <v>0.9903279118225773</v>
       </c>
       <c r="F13">
         <v>0.9889344979512075</v>
@@ -1084,7 +1084,7 @@
         <v>0.9904044004571106</v>
       </c>
       <c r="I13">
-        <v>0.9892063469786483</v>
+        <v>0.9892063469786482</v>
       </c>
       <c r="J13">
         <v>0.9889430774921655</v>
@@ -1099,10 +1099,10 @@
         <v>0.9887481145903303</v>
       </c>
       <c r="N13">
-        <v>0.9903661561398438</v>
+        <v>0.990366156139844</v>
       </c>
       <c r="O13">
-        <v>0.9896128025487395</v>
+        <v>0.9896128025487396</v>
       </c>
       <c r="P13">
         <v>0.9892199240517092</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9908699710885759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.204979639723102</v>
+      </c>
+      <c r="D16">
+        <v>1.130889471180497</v>
+      </c>
+      <c r="E16">
+        <v>0.9868289383519783</v>
+      </c>
+      <c r="F16">
+        <v>0.9858307263132607</v>
+      </c>
+      <c r="G16">
+        <v>1.204979639723102</v>
+      </c>
+      <c r="H16">
+        <v>1.130889471180497</v>
+      </c>
+      <c r="I16">
+        <v>0.9600196664009265</v>
+      </c>
+      <c r="J16">
+        <v>0.9101211500444905</v>
+      </c>
+      <c r="K16">
+        <v>1.037813908353118</v>
+      </c>
+      <c r="L16">
+        <v>1.012825126442885</v>
+      </c>
+      <c r="M16">
+        <v>1.203803169134867</v>
+      </c>
+      <c r="N16">
+        <v>1.058859204766238</v>
+      </c>
+      <c r="O16">
+        <v>1.07713219389221</v>
+      </c>
+      <c r="P16">
+        <v>1.028663578351282</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.204979639723102</v>

--- a/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
@@ -1075,7 +1075,7 @@
         <v>0.9904044004571106</v>
       </c>
       <c r="E13">
-        <v>0.9903279118225773</v>
+        <v>0.990327911822577</v>
       </c>
       <c r="F13">
         <v>0.9889344979512075</v>
@@ -1087,7 +1087,7 @@
         <v>0.9904044004571106</v>
       </c>
       <c r="I13">
-        <v>0.9892063469786482</v>
+        <v>0.9892063469786483</v>
       </c>
       <c r="J13">
         <v>0.9889430774921655</v>
@@ -1102,10 +1102,10 @@
         <v>0.9887481145903303</v>
       </c>
       <c r="N13">
-        <v>0.990366156139844</v>
+        <v>0.9903661561398438</v>
       </c>
       <c r="O13">
-        <v>0.9896128025487396</v>
+        <v>0.9896128025487395</v>
       </c>
       <c r="P13">
         <v>0.9892199240517092</v>

--- a/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP780A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4673639999999992</v>
+        <v>1.204979639723102</v>
       </c>
       <c r="D10">
-        <v>0.5863880000000014</v>
+        <v>1.130889471180497</v>
       </c>
       <c r="E10">
-        <v>1.944223999999994</v>
+        <v>0.9868289383519783</v>
       </c>
       <c r="F10">
-        <v>1.050108</v>
+        <v>0.9858307263132607</v>
       </c>
       <c r="G10">
-        <v>0.4673639999999992</v>
+        <v>1.204979639723102</v>
       </c>
       <c r="H10">
-        <v>0.5863880000000014</v>
+        <v>1.130889471180497</v>
       </c>
       <c r="I10">
-        <v>1.034427999999998</v>
+        <v>0.9600196664009265</v>
       </c>
       <c r="J10">
-        <v>1.115416000000001</v>
+        <v>0.9101211500444905</v>
       </c>
       <c r="K10">
-        <v>0.8570719999999994</v>
+        <v>1.037813908353118</v>
       </c>
       <c r="L10">
-        <v>0.8497400000000003</v>
+        <v>1.012825126442885</v>
       </c>
       <c r="M10">
-        <v>0.4673639999999992</v>
+        <v>1.203803169134867</v>
       </c>
       <c r="N10">
-        <v>1.265305999999998</v>
+        <v>1.058859204766238</v>
       </c>
       <c r="O10">
-        <v>1.012020999999999</v>
+        <v>1.07713219389221</v>
       </c>
       <c r="P10">
-        <v>0.9880924999999994</v>
+        <v>1.028663578351282</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.37</v>
+        <v>0.8203101778564613</v>
       </c>
       <c r="D11">
-        <v>0.43</v>
+        <v>0.7579954379343438</v>
       </c>
       <c r="E11">
-        <v>2.307787500000005</v>
+        <v>1.36593786761995</v>
       </c>
       <c r="F11">
-        <v>1.012800000000001</v>
+        <v>0.9937550098916869</v>
       </c>
       <c r="G11">
-        <v>0.37</v>
+        <v>0.8203101778564613</v>
       </c>
       <c r="H11">
-        <v>0.43</v>
+        <v>0.7579954379343438</v>
       </c>
       <c r="I11">
-        <v>1.0698625</v>
+        <v>1.048874144304295</v>
       </c>
       <c r="J11">
-        <v>1.14</v>
+        <v>1.031031198856483</v>
       </c>
       <c r="K11">
-        <v>0.8100000000000001</v>
+        <v>0.9489960019274346</v>
       </c>
       <c r="L11">
-        <v>0.7883250000000011</v>
+        <v>0.8569628415694114</v>
       </c>
       <c r="M11">
-        <v>0.37</v>
+        <v>0.8199676178080142</v>
       </c>
       <c r="N11">
-        <v>1.368893750000002</v>
+        <v>1.061966652777147</v>
       </c>
       <c r="O11">
-        <v>1.030146875000002</v>
+        <v>0.9844996233256105</v>
       </c>
       <c r="P11">
-        <v>0.9910968750000008</v>
+        <v>0.9779828349950084</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6329671753727996</v>
+        <v>0.8185300792850775</v>
       </c>
       <c r="D12">
-        <v>0.6670786767871995</v>
+        <v>0.7580842744465561</v>
       </c>
       <c r="E12">
-        <v>1.727308934656002</v>
+        <v>1.36664211258959</v>
       </c>
       <c r="F12">
-        <v>0.9999519609855996</v>
+        <v>0.9944271443356716</v>
       </c>
       <c r="G12">
-        <v>0.6329671753727996</v>
+        <v>0.8185300792850775</v>
       </c>
       <c r="H12">
-        <v>0.6670786767871995</v>
+        <v>0.7580842744465561</v>
       </c>
       <c r="I12">
-        <v>1.0413443135488</v>
+        <v>1.048161618132777</v>
       </c>
       <c r="J12">
-        <v>1.079964128665602</v>
+        <v>1.031427283086507</v>
       </c>
       <c r="K12">
-        <v>0.8864931692543976</v>
+        <v>0.9487211614183949</v>
       </c>
       <c r="L12">
-        <v>0.8727113646080029</v>
+        <v>0.8575378528638102</v>
       </c>
       <c r="M12">
-        <v>0.6329605728255995</v>
+        <v>0.8182098659924394</v>
       </c>
       <c r="N12">
-        <v>1.197193805721601</v>
+        <v>1.062363193518073</v>
       </c>
       <c r="O12">
-        <v>1.0068266869504</v>
+        <v>0.9844209026642237</v>
       </c>
       <c r="P12">
-        <v>0.9884774654848003</v>
+        <v>0.9779414407697979</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9887843999640632</v>
+        <v>0.8199002850969174</v>
       </c>
       <c r="D13">
-        <v>0.9904044004571106</v>
+        <v>0.7579529612060999</v>
       </c>
       <c r="E13">
-        <v>0.990327911822577</v>
+        <v>1.365984356110928</v>
       </c>
       <c r="F13">
-        <v>0.9889344979512075</v>
+        <v>0.9940515393926244</v>
       </c>
       <c r="G13">
-        <v>0.9887843999640632</v>
+        <v>0.8199002850969174</v>
       </c>
       <c r="H13">
-        <v>0.9904044004571106</v>
+        <v>0.7579529612060999</v>
       </c>
       <c r="I13">
-        <v>0.9892063469786483</v>
+        <v>1.048608931945201</v>
       </c>
       <c r="J13">
-        <v>0.9889430774921655</v>
+        <v>1.031082820436795</v>
       </c>
       <c r="K13">
-        <v>0.9885698970046537</v>
+        <v>0.9489385758818552</v>
       </c>
       <c r="L13">
-        <v>0.9885888607432476</v>
+        <v>0.8571040422088818</v>
       </c>
       <c r="M13">
-        <v>0.9887481145903303</v>
+        <v>0.8195591990863536</v>
       </c>
       <c r="N13">
-        <v>0.9903661561398438</v>
+        <v>1.061968658658514</v>
       </c>
       <c r="O13">
-        <v>0.9896128025487395</v>
+        <v>0.9844722854516423</v>
       </c>
       <c r="P13">
-        <v>0.9892199240517092</v>
+        <v>0.9779529390349129</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9689173016450437</v>
+        <v>0.4673639999999992</v>
       </c>
       <c r="D14">
-        <v>0.9650857153889876</v>
+        <v>0.5863880000000014</v>
       </c>
       <c r="E14">
-        <v>1.039497737930568</v>
+        <v>1.944223999999994</v>
       </c>
       <c r="F14">
-        <v>0.9888728273826991</v>
+        <v>1.050108</v>
       </c>
       <c r="G14">
-        <v>0.9689173016450437</v>
+        <v>0.4673639999999992</v>
       </c>
       <c r="H14">
-        <v>0.9650857153889876</v>
+        <v>0.5863880000000014</v>
       </c>
       <c r="I14">
-        <v>0.959047555164898</v>
+        <v>1.034427999999998</v>
       </c>
       <c r="J14">
-        <v>0.9829062904306854</v>
+        <v>1.115416000000001</v>
       </c>
       <c r="K14">
-        <v>0.9787042628075916</v>
+        <v>0.8570719999999994</v>
       </c>
       <c r="L14">
-        <v>0.9785318013432063</v>
+        <v>0.8497400000000003</v>
       </c>
       <c r="M14">
-        <v>0.9689173016450437</v>
+        <v>0.4673639999999992</v>
       </c>
       <c r="N14">
-        <v>1.002291726659778</v>
+        <v>1.265305999999998</v>
       </c>
       <c r="O14">
-        <v>0.9905933955868246</v>
+        <v>1.012020999999999</v>
       </c>
       <c r="P14">
-        <v>0.98269543651171</v>
+        <v>0.9880924999999994</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000152709206348</v>
+        <v>0.37</v>
       </c>
       <c r="D15">
-        <v>1.004512157379551</v>
+        <v>0.43</v>
       </c>
       <c r="E15">
-        <v>0.9787567452273622</v>
+        <v>2.307787500000005</v>
       </c>
       <c r="F15">
-        <v>0.993029961728995</v>
+        <v>1.012800000000001</v>
       </c>
       <c r="G15">
-        <v>1.000152709206348</v>
+        <v>0.37</v>
       </c>
       <c r="H15">
-        <v>1.004512157379551</v>
+        <v>0.43</v>
       </c>
       <c r="I15">
-        <v>0.9803620705836725</v>
+        <v>1.0698625</v>
       </c>
       <c r="J15">
-        <v>0.9818826134185249</v>
+        <v>1.14</v>
       </c>
       <c r="K15">
-        <v>0.9904940528935374</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L15">
-        <v>0.9977694582706162</v>
+        <v>0.7883250000000011</v>
       </c>
       <c r="M15">
-        <v>1.000124337934872</v>
+        <v>0.37</v>
       </c>
       <c r="N15">
-        <v>0.9916344513034566</v>
+        <v>1.368893750000002</v>
       </c>
       <c r="O15">
-        <v>0.9941128933855641</v>
+        <v>1.030146875000002</v>
       </c>
       <c r="P15">
-        <v>0.9908699710885759</v>
+        <v>0.9910968750000008</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.204979639723102</v>
+        <v>0.6329671753727996</v>
       </c>
       <c r="D16">
-        <v>1.130889471180497</v>
+        <v>0.6670786767871995</v>
       </c>
       <c r="E16">
-        <v>0.9868289383519783</v>
+        <v>1.727308934656002</v>
       </c>
       <c r="F16">
-        <v>0.9858307263132607</v>
+        <v>0.9999519609855996</v>
       </c>
       <c r="G16">
-        <v>1.204979639723102</v>
+        <v>0.6329671753727996</v>
       </c>
       <c r="H16">
-        <v>1.130889471180497</v>
+        <v>0.6670786767871995</v>
       </c>
       <c r="I16">
-        <v>0.9600196664009265</v>
+        <v>1.0413443135488</v>
       </c>
       <c r="J16">
-        <v>0.9101211500444905</v>
+        <v>1.079964128665602</v>
       </c>
       <c r="K16">
-        <v>1.037813908353118</v>
+        <v>0.8864931692543976</v>
       </c>
       <c r="L16">
-        <v>1.012825126442885</v>
+        <v>0.8727113646080029</v>
       </c>
       <c r="M16">
-        <v>1.203803169134867</v>
+        <v>0.6329605728255995</v>
       </c>
       <c r="N16">
-        <v>1.058859204766238</v>
+        <v>1.197193805721601</v>
       </c>
       <c r="O16">
-        <v>1.07713219389221</v>
+        <v>1.0068266869504</v>
       </c>
       <c r="P16">
-        <v>1.028663578351282</v>
+        <v>0.9884774654848003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9887843999640632</v>
+      </c>
+      <c r="D17">
+        <v>0.9904044004571106</v>
+      </c>
+      <c r="E17">
+        <v>0.9903279118225773</v>
+      </c>
+      <c r="F17">
+        <v>0.9889344979512075</v>
+      </c>
+      <c r="G17">
+        <v>0.9887843999640632</v>
+      </c>
+      <c r="H17">
+        <v>0.9904044004571106</v>
+      </c>
+      <c r="I17">
+        <v>0.9892063469786482</v>
+      </c>
+      <c r="J17">
+        <v>0.9889430774921655</v>
+      </c>
+      <c r="K17">
+        <v>0.9885698970046537</v>
+      </c>
+      <c r="L17">
+        <v>0.9885888607432476</v>
+      </c>
+      <c r="M17">
+        <v>0.9887481145903303</v>
+      </c>
+      <c r="N17">
+        <v>0.990366156139844</v>
+      </c>
+      <c r="O17">
+        <v>0.9896128025487396</v>
+      </c>
+      <c r="P17">
+        <v>0.9892199240517092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9689173016450437</v>
+      </c>
+      <c r="D18">
+        <v>0.9650857153889876</v>
+      </c>
+      <c r="E18">
+        <v>1.039497737930568</v>
+      </c>
+      <c r="F18">
+        <v>0.9888728273826991</v>
+      </c>
+      <c r="G18">
+        <v>0.9689173016450437</v>
+      </c>
+      <c r="H18">
+        <v>0.9650857153889876</v>
+      </c>
+      <c r="I18">
+        <v>0.959047555164898</v>
+      </c>
+      <c r="J18">
+        <v>0.9829062904306854</v>
+      </c>
+      <c r="K18">
+        <v>0.9787042628075916</v>
+      </c>
+      <c r="L18">
+        <v>0.9785318013432063</v>
+      </c>
+      <c r="M18">
+        <v>0.9689173016450437</v>
+      </c>
+      <c r="N18">
+        <v>1.002291726659778</v>
+      </c>
+      <c r="O18">
+        <v>0.9905933955868246</v>
+      </c>
+      <c r="P18">
+        <v>0.98269543651171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.000152709206348</v>
+      </c>
+      <c r="D19">
+        <v>1.004512157379551</v>
+      </c>
+      <c r="E19">
+        <v>0.9787567452273622</v>
+      </c>
+      <c r="F19">
+        <v>0.993029961728995</v>
+      </c>
+      <c r="G19">
+        <v>1.000152709206348</v>
+      </c>
+      <c r="H19">
+        <v>1.004512157379551</v>
+      </c>
+      <c r="I19">
+        <v>0.9803620705836725</v>
+      </c>
+      <c r="J19">
+        <v>0.9818826134185249</v>
+      </c>
+      <c r="K19">
+        <v>0.9904940528935374</v>
+      </c>
+      <c r="L19">
+        <v>0.9977694582706162</v>
+      </c>
+      <c r="M19">
+        <v>1.000124337934872</v>
+      </c>
+      <c r="N19">
+        <v>0.9916344513034566</v>
+      </c>
+      <c r="O19">
+        <v>0.9941128933855641</v>
+      </c>
+      <c r="P19">
+        <v>0.9908699710885759</v>
       </c>
     </row>
   </sheetData>
